--- a/data/testexcel.xlsx
+++ b/data/testexcel.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="105">
   <si>
     <t>key</t>
   </si>
@@ -263,6 +263,84 @@
   </si>
   <si>
     <t>여보세요</t>
+  </si>
+  <si>
+    <t>Sheet 1 key 16</t>
+  </si>
+  <si>
+    <t>Sheet 1 key 17</t>
+  </si>
+  <si>
+    <t>Sheet 1 key 18</t>
+  </si>
+  <si>
+    <t>Sheet 1 key 19</t>
+  </si>
+  <si>
+    <t>Sheet 1 key 20</t>
+  </si>
+  <si>
+    <t>Sheet 1 key 21</t>
+  </si>
+  <si>
+    <t>Sheet 1 key 22</t>
+  </si>
+  <si>
+    <t>Sheet 1 key 23</t>
+  </si>
+  <si>
+    <t>Sheet 1 key 24</t>
+  </si>
+  <si>
+    <t>Sheet 1 key 25</t>
+  </si>
+  <si>
+    <t>Sheet 1 key 26</t>
+  </si>
+  <si>
+    <t>Sheet 1 key 27</t>
+  </si>
+  <si>
+    <t>Sheet 1 Value 16</t>
+  </si>
+  <si>
+    <t>Sheet 1 Value 17</t>
+  </si>
+  <si>
+    <t>Sheet 1 Value 18</t>
+  </si>
+  <si>
+    <t>Sheet 1 Value 19</t>
+  </si>
+  <si>
+    <t>Sheet 1 Value 20</t>
+  </si>
+  <si>
+    <t>Sheet 1 Value 21</t>
+  </si>
+  <si>
+    <t>Sheet 1 Value 22</t>
+  </si>
+  <si>
+    <t>Sheet 1 Value 23</t>
+  </si>
+  <si>
+    <t>Sheet 1 Value 24</t>
+  </si>
+  <si>
+    <t>Sheet 1 Value 25</t>
+  </si>
+  <si>
+    <t>Sheet 1 Value 26</t>
+  </si>
+  <si>
+    <t>Sheet 1 Value 27</t>
+  </si>
+  <si>
+    <t>Sheet 1 key 28</t>
+  </si>
+  <si>
+    <t>Sheet 1 Value 28</t>
   </si>
 </sst>
 </file>
@@ -580,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,6 +793,134 @@
       </c>
       <c r="B16" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
